--- a/tests/integration_test_files/timeline_duration.xlsx
+++ b/tests/integration_test_files/timeline_duration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40084D1B-9FCD-C24B-BF75-15672F4C1595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117C872-33C5-984D-9706-613316ED4A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="27240" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="4780" yWindow="500" windowWidth="35500" windowHeight="27240" firstSheet="5" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="868">
   <si>
     <t>Screening</t>
   </si>
@@ -2672,6 +2672,24 @@
   </si>
   <si>
     <t>Amendment Four</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>durationDescription</t>
+  </si>
+  <si>
+    <t>reasonDurationWillVary</t>
+  </si>
+  <si>
+    <t>100 Days</t>
+  </si>
+  <si>
+    <t>Because shit happens</t>
+  </si>
+  <si>
+    <t>The length of the study</t>
   </si>
 </sst>
 </file>
@@ -3477,16 +3495,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
     <col min="4" max="8" width="12.33203125" style="1" customWidth="1"/>
@@ -3572,7 +3590,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>865</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
@@ -3593,7 +3616,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>866</v>
+      </c>
       <c r="C5" s="13" t="s">
         <v>614</v>
       </c>
@@ -3614,7 +3642,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>867</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>616</v>
       </c>
@@ -5304,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051C019D-8DBE-D14B-A9B5-0060B58D7557}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/tests/integration_test_files/timeline_duration.xlsx
+++ b/tests/integration_test_files/timeline_duration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8117C872-33C5-984D-9706-613316ED4A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692A0E2-941C-8944-A9F8-C9AC19F132EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="500" windowWidth="35500" windowHeight="27240" firstSheet="5" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="2900" yWindow="500" windowWidth="35500" windowHeight="20060" firstSheet="5" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -2032,12 +2032,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
-    <t>Secondary Objective</t>
-  </si>
-  <si>
     <t>geographicScope</t>
   </si>
   <si>
@@ -2690,13 +2684,19 @@
   </si>
   <si>
     <t>The length of the study</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Trial Secondary Objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2738,6 +2738,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2771,7 +2778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2859,6 +2866,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3330,7 +3340,7 @@
         <v>515</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C17" t="s">
         <v>516</v>
@@ -3353,7 +3363,7 @@
         <v>519</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C18" t="s">
         <v>520</v>
@@ -3376,7 +3386,7 @@
         <v>519</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C19" t="s">
         <v>520</v>
@@ -3396,13 +3406,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D20" t="s">
         <v>521</v>
@@ -3414,18 +3424,18 @@
         <v>44988</v>
       </c>
       <c r="G20" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C21" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D21" t="s">
         <v>521</v>
@@ -3437,18 +3447,18 @@
         <v>44988</v>
       </c>
       <c r="G21" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C22" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D22" t="s">
         <v>521</v>
@@ -3460,18 +3470,18 @@
         <v>44988</v>
       </c>
       <c r="G22" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C23" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D23" t="s">
         <v>521</v>
@@ -3483,7 +3493,7 @@
         <v>44988</v>
       </c>
       <c r="G23" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -3591,10 +3601,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
@@ -3617,10 +3627,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>862</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>866</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>614</v>
@@ -3643,10 +3653,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>616</v>
@@ -4383,7 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -4445,8 +4455,8 @@
       <c r="D2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>648</v>
+      <c r="E2" s="10" t="s">
+        <v>866</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>77</v>
@@ -4469,8 +4479,8 @@
       <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>649</v>
+      <c r="E3" s="34" t="s">
+        <v>867</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>78</v>
@@ -4976,7 +4986,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>90</v>
@@ -4994,7 +5004,7 @@
         <v>91</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5026,7 +5036,7 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5034,7 +5044,7 @@
         <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5042,7 +5052,7 @@
         <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5074,7 +5084,7 @@
         <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -5376,7 +5386,7 @@
         <v>529</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I1" s="25" t="s">
         <v>538</v>
@@ -5385,18 +5395,18 @@
         <v>514</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>382</v>
@@ -5415,21 +5425,21 @@
         <v>541</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>381</v>
@@ -5442,27 +5452,27 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>542</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>378</v>
@@ -5481,21 +5491,21 @@
         <v>543</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
@@ -5508,16 +5518,16 @@
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>544</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -5676,2636 +5686,2636 @@
         <v>480</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>242</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>375</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>249</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>376</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>250</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>377</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>251</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>378</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>245</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>252</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>380</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>253</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>381</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>246</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>508</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>509</v>
       </c>
       <c r="E10" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>835</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>382</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>247</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>383</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>254</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>374</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>255</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>384</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>256</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>385</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>257</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>386</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>258</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>387</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>259</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>463</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>260</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>464</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>261</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>441</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>465</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>262</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>466</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>263</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>467</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>264</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>265</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>266</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>430</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>267</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>431</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>268</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>432</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>269</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>270</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>271</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>442</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>272</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>471</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>273</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>274</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>275</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>388</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>276</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>474</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>277</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>475</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>278</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>389</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>279</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>390</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>280</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>391</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>281</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>282</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>392</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>283</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>393</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>284</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>394</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>285</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>477</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>286</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>478</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>287</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>395</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>288</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>396</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>289</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>397</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>290</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>291</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>443</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>373</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>292</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>399</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>293</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>400</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>294</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>401</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>295</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>296</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>482</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>297</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>298</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>444</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>299</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>300</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>301</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>486</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>302</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>434</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>303</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>402</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>304</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>403</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>305</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>404</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>306</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>405</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>307</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>487</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>308</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>435</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>309</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>406</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>310</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>407</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>311</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>408</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>312</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>409</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>313</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>410</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>314</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>411</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>315</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>412</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>316</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>413</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>317</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>414</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>318</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>488</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>319</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>415</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>320</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>416</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>321</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>489</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>322</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>417</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>323</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>418</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>324</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>419</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>325</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>420</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>326</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>421</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>327</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>490</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>328</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B89" s="10" t="s">
         <v>491</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>329</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>492</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>330</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B91" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>331</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>436</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>332</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B93" s="10" t="s">
         <v>445</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>333</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>493</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>334</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B95" s="10" t="s">
         <v>494</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>335</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>422</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>336</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>423</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>337</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>424</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>338</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B99" s="10" t="s">
         <v>425</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>339</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>426</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>340</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B101" s="10" t="s">
         <v>495</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>341</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>496</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>342</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B103" s="10" t="s">
         <v>497</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>343</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>498</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>344</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>499</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>345</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>500</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>346</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B107" s="10" t="s">
         <v>501</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>347</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>446</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>348</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B109" s="10" t="s">
         <v>502</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>349</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>503</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>350</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>504</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>351</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>505</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>352</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>506</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>353</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>447</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>354</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B115" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>355</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B116" s="10" t="s">
         <v>461</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>356</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B117" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>357</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B118" s="10" t="s">
         <v>448</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>358</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B119" s="10" t="s">
         <v>459</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>359</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>360</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B121" s="10" t="s">
         <v>457</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>361</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>456</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>362</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B123" s="10" t="s">
         <v>449</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>363</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>455</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>364</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B125" s="10" t="s">
         <v>427</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>365</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>428</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>366</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B127" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>367</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>454</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>368</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B129" s="10" t="s">
         <v>453</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>369</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>452</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>370</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B131" s="10" t="s">
         <v>450</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>371</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>451</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>372</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -8368,7 +8378,7 @@
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>510</v>
@@ -8376,7 +8386,7 @@
     </row>
     <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>511</v>
@@ -8384,7 +8394,7 @@
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>437</v>
@@ -8392,7 +8402,7 @@
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>438</v>
@@ -8400,7 +8410,7 @@
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>439</v>
@@ -8408,7 +8418,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8483,7 +8493,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>440</v>
@@ -8495,13 +8505,13 @@
         <v>513</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>527</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -8509,22 +8519,22 @@
         <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -8532,16 +8542,16 @@
         <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8549,16 +8559,16 @@
         <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -8566,16 +8576,16 @@
         <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -8583,16 +8593,16 @@
         <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8600,16 +8610,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -8636,13 +8646,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>243</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>40</v>
@@ -8653,13 +8663,13 @@
         <v>382</v>
       </c>
       <c r="B2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C2" t="s">
         <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8667,13 +8677,13 @@
         <v>382</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C3" t="s">
         <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8681,13 +8691,13 @@
         <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C4" t="s">
         <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -8695,13 +8705,13 @@
         <v>381</v>
       </c>
       <c r="B5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C5" t="s">
         <v>532</v>
       </c>
       <c r="D5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -8709,13 +8719,13 @@
         <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C6" t="s">
         <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8723,13 +8733,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C7" t="s">
         <v>532</v>
       </c>
       <c r="D7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -8757,10 +8767,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>440</v>
@@ -8772,7 +8782,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8803,7 +8813,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -8839,7 +8849,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8855,7 +8865,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -8946,7 +8956,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>120</v>
@@ -9010,7 +9020,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>

--- a/tests/integration_test_files/timeline_duration.xlsx
+++ b/tests/integration_test_files/timeline_duration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692A0E2-941C-8944-A9F8-C9AC19F132EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9111775-0D72-F840-AC5A-D222E5128EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2900" yWindow="500" windowWidth="35500" windowHeight="20060" firstSheet="5" activeTab="15" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="2900" yWindow="500" windowWidth="35500" windowHeight="20060" activeTab="4" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -453,12 +453,6 @@
     <t>Really really bad shit</t>
   </si>
   <si>
-    <t>Clinical Study Sponsor</t>
-  </si>
-  <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>SPONSOR:T2_DIABETES=Type 2 diabetes, SNOMED: 73211009=Diabetes mellitus (disorder)</t>
   </si>
   <si>
@@ -2690,6 +2684,12 @@
   </si>
   <si>
     <t>Trial Secondary Objective</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Company</t>
   </si>
 </sst>
 </file>
@@ -2864,11 +2864,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3202,10 +3202,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3314,186 +3314,186 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C17" t="s">
+        <v>514</v>
+      </c>
+      <c r="D17" t="s">
         <v>515</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>690</v>
-      </c>
-      <c r="C17" t="s">
-        <v>516</v>
-      </c>
-      <c r="D17" t="s">
-        <v>517</v>
-      </c>
       <c r="E17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F17" s="24">
         <v>44927</v>
       </c>
       <c r="G17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C18" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" t="s">
         <v>519</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="C18" t="s">
-        <v>520</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>521</v>
-      </c>
-      <c r="E18" t="s">
-        <v>523</v>
       </c>
       <c r="F18" s="24">
         <v>44927</v>
       </c>
       <c r="G18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C19" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" t="s">
         <v>519</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="C19" t="s">
-        <v>520</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>521</v>
-      </c>
-      <c r="E19" t="s">
-        <v>523</v>
       </c>
       <c r="F19" s="24">
         <v>44958</v>
       </c>
       <c r="G19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C20" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D20" t="s">
+        <v>519</v>
+      </c>
+      <c r="E20" t="s">
         <v>521</v>
-      </c>
-      <c r="E20" t="s">
-        <v>523</v>
       </c>
       <c r="F20" s="24">
         <v>44988</v>
       </c>
       <c r="G20" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C21" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D21" t="s">
+        <v>519</v>
+      </c>
+      <c r="E21" t="s">
         <v>521</v>
-      </c>
-      <c r="E21" t="s">
-        <v>523</v>
       </c>
       <c r="F21" s="24">
         <v>44988</v>
       </c>
       <c r="G21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E22" t="s">
         <v>521</v>
-      </c>
-      <c r="E22" t="s">
-        <v>523</v>
       </c>
       <c r="F22" s="24">
         <v>44988</v>
       </c>
       <c r="G22" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C23" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D23" t="s">
+        <v>519</v>
+      </c>
+      <c r="E23" t="s">
         <v>521</v>
-      </c>
-      <c r="E23" t="s">
-        <v>523</v>
       </c>
       <c r="F23" s="24">
         <v>44988</v>
       </c>
       <c r="G23" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -3523,36 +3523,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>41</v>
@@ -3561,30 +3561,30 @@
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -3593,73 +3593,73 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>864</v>
-      </c>
       <c r="C5" s="13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3671,7 +3671,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -3693,22 +3693,22 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3719,7 +3719,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3794,135 +3794,135 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F2" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" t="s">
+        <v>625</v>
+      </c>
+      <c r="H2" t="s">
         <v>626</v>
-      </c>
-      <c r="E2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F2" t="s">
-        <v>605</v>
-      </c>
-      <c r="G2" t="s">
-        <v>627</v>
-      </c>
-      <c r="H2" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C3" t="s">
         <v>629</v>
       </c>
-      <c r="B3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C3" t="s">
-        <v>631</v>
-      </c>
       <c r="D3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4" t="s">
         <v>633</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F4" t="s">
+        <v>604</v>
+      </c>
+      <c r="G4" t="s">
         <v>634</v>
-      </c>
-      <c r="C4" t="s">
-        <v>610</v>
-      </c>
-      <c r="D4" t="s">
-        <v>635</v>
-      </c>
-      <c r="E4" t="s">
-        <v>606</v>
-      </c>
-      <c r="F4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G4" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D5" t="s">
         <v>637</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G5" t="s">
         <v>638</v>
       </c>
-      <c r="C5" t="s">
-        <v>611</v>
-      </c>
-      <c r="D5" t="s">
-        <v>639</v>
-      </c>
-      <c r="E5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F5" t="s">
-        <v>606</v>
-      </c>
-      <c r="G5" t="s">
-        <v>640</v>
-      </c>
       <c r="H5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -3930,31 +3930,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E6" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" t="s">
+        <v>604</v>
+      </c>
+      <c r="G6" t="s">
         <v>641</v>
       </c>
-      <c r="B6" t="s">
+      <c r="H6" t="s">
+        <v>626</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>642</v>
-      </c>
-      <c r="C6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" t="s">
-        <v>639</v>
-      </c>
-      <c r="E6" t="s">
-        <v>608</v>
-      </c>
-      <c r="F6" t="s">
-        <v>606</v>
-      </c>
-      <c r="G6" t="s">
-        <v>643</v>
-      </c>
-      <c r="H6" t="s">
-        <v>628</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -3981,16 +3981,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4006,13 +4006,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4058,61 +4058,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>40</v>
       </c>
       <c r="G1" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="19" t="s">
         <v>559</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>562</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>566</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>568</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>569</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -4120,58 +4120,58 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D2" t="s">
         <v>572</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>574</v>
       </c>
-      <c r="E2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" t="s">
+        <v>644</v>
+      </c>
+      <c r="I2" t="s">
         <v>575</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>576</v>
       </c>
-      <c r="H2" t="s">
-        <v>646</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>577</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>578</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>579</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>580</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>581</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>582</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" t="s">
         <v>583</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" s="27" t="s">
         <v>584</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>151</v>
-      </c>
-      <c r="R2" t="s">
-        <v>585</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -4179,58 +4179,58 @@
         <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" t="s">
+        <v>645</v>
+      </c>
+      <c r="I3" t="s">
         <v>575</v>
       </c>
-      <c r="G3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H3" t="s">
-        <v>647</v>
-      </c>
-      <c r="I3" t="s">
-        <v>577</v>
-      </c>
       <c r="J3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K3" t="s">
+        <v>588</v>
+      </c>
+      <c r="L3" t="s">
         <v>589</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>579</v>
+      </c>
+      <c r="N3" t="s">
+        <v>580</v>
+      </c>
+      <c r="O3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P3" t="s">
         <v>590</v>
       </c>
-      <c r="L3" t="s">
-        <v>591</v>
-      </c>
-      <c r="M3" t="s">
-        <v>581</v>
-      </c>
-      <c r="N3" t="s">
-        <v>582</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R3" t="s">
         <v>583</v>
       </c>
-      <c r="P3" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" t="s">
-        <v>585</v>
-      </c>
       <c r="S3" s="27" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -4255,13 +4255,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>42</v>
@@ -4272,10 +4272,10 @@
         <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>43</v>
@@ -4286,10 +4286,10 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>44</v>
@@ -4321,25 +4321,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>46</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -4364,24 +4364,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" t="s">
         <v>598</v>
       </c>
-      <c r="B4" t="s">
-        <v>600</v>
-      </c>
       <c r="G4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
@@ -4419,10 +4419,10 @@
         <v>48</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>49</v>
@@ -4434,13 +4434,13 @@
         <v>50</v>
       </c>
       <c r="H1" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>549</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>550</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>551</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>51</v>
@@ -4456,7 +4456,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>77</v>
@@ -4479,8 +4479,8 @@
       <c r="D3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>867</v>
+      <c r="E3" s="33" t="s">
+        <v>865</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>78</v>
@@ -4986,7 +4986,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>90</v>
@@ -5004,7 +5004,7 @@
         <v>91</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5018,7 +5018,7 @@
         <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E2" t="s">
         <v>95</v>
@@ -5036,7 +5036,7 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -5044,7 +5044,7 @@
         <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -5052,7 +5052,7 @@
         <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -5066,7 +5066,7 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E5" t="s">
         <v>128</v>
@@ -5084,7 +5084,7 @@
         <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -5116,62 +5116,62 @@
         <v>68</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>150</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -5207,134 +5207,134 @@
         <v>68</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="E5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5365,169 +5365,169 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>529</v>
-      </c>
       <c r="H1" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I1" s="25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J1" s="25" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>533</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>535</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -5557,101 +5557,101 @@
         <v>68</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5680,2672 +5680,2672 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>698</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>699</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C10" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>831</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>833</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C73" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E73" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E74" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E75" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E76" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E78" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E79" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E80" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E82" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E86" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E87" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E88" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E89" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E90" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E91" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E92" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E93" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E94" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E95" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E96" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E97" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E98" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E99" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E106" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C117" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E118" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C119" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E119" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A120" s="10" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C120" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E120" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C121" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E121" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E123" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C124" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E124" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E125" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C126" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E126" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C127" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E127" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C128" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="10" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C129" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E129" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E131" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E132" s="31" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B134" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B135" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B136" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B137" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B138" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8370,55 +8370,55 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -8493,116 +8493,116 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="G3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="G5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -8610,16 +8610,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="G7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -8646,13 +8646,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>651</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>653</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>40</v>
@@ -8660,72 +8660,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
         <v>658</v>
-      </c>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8733,13 +8733,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -8751,7 +8751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0EEE72-904E-5840-AC35-E8F034077FC1}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -8767,22 +8767,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -8799,10 +8799,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>866</v>
       </c>
       <c r="F2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -8813,16 +8813,16 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>867</v>
       </c>
       <c r="F3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -8849,7 +8849,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8865,7 +8865,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -8890,146 +8890,146 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+        <v>204</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+        <v>205</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="B7" s="33" t="s">
+        <v>847</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+        <v>132</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+        <v>133</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+        <v>848</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>26</v>
@@ -9049,16 +9049,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9066,16 +9066,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9129,19 +9129,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9149,16 +9149,16 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9169,13 +9169,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -9203,13 +9203,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -9217,10 +9217,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9228,10 +9228,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9239,10 +9239,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9250,10 +9250,10 @@
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
